--- a/网络安全技术/原题库.xlsx
+++ b/网络安全技术/原题库.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D112"/>
+  <dimension ref="A1:D146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,7 +499,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ip地址可以唯一地标识主机所在的网络和网络位置。</t>
+          <t>IPv6以内嵌安全机制要求强行实现IP安全协议IPSec，提供支持数据源发认证、完整性和保密性的能力，同时也可抵抗重放攻击。</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -517,7 +517,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ip地址提供统一的地址格式，由32位二进制数组成。</t>
+          <t>Ip地址可以唯一地标识主机所在的网络和网络位置。</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SSL协议主要用于加密机制。</t>
+          <t>Ip地址提供统一的地址格式，由32位二进制数组成。</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -553,12 +553,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>UDP提供面向连接的、可靠的、点到点全双工通信；TCP提供面向无连接的、不可靠的，尽最大努力的传输。</t>
+          <t>SSL协议主要用于加密机制。</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>错误</t>
+          <t>正确</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -571,12 +571,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>世界上第一个攻击硬件的病毒是"CIH"。</t>
+          <t>UDP提供面向连接的、可靠的、点到点全双工通信；TCP提供面向无连接的、不可靠的，尽最大努力的传输。</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>正确</t>
+          <t>错误</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -589,12 +589,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>为了防御网络监听，最常用的方法是采用物理传输。</t>
+          <t>世界上第一个攻击硬件的病毒是"CIH"。</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>错误</t>
+          <t>正确</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -607,12 +607,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>主机网络安全所采用的技术手段通常在被保护的主机内实现，并且一般为软件形式。</t>
+          <t>为了防御网络监听，最常用的方法是采用物理传输。</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>正确</t>
+          <t>错误</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>保障网络安全的三大支柱是网络安全技术、网络安全法律法规和网络安全管理，分别体现了安全策略的限制、监督和保障职能。</t>
+          <t>主机网络安全所采用的技术手段通常在被保护的主机内实现，并且一般为软件形式。</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -643,7 +643,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>包过滤防火墙一般工作在OSI参考模型的网络层和传输层，主要对IP分组和TCP/IP端口进行检测和过滤操作。</t>
+          <t>保障网络安全的三大支柱是网络安全技术、网络安全法律法规和网络安全管理，分别体现了安全策略的限制、监督和保障职能。</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -661,12 +661,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>只是从被感染磁盘上复制文件到硬盘上，并不运行其中的可执行文件，就不会使系统感染病毒。</t>
+          <t>包过滤防火墙一般工作在OSI参考模型的网络层和传输层，主要对IP分组和TCP/IP端口进行检测和过滤操作。</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>错误</t>
+          <t>正确</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -679,12 +679,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>因无线网络无法定向传输，导致无线网络存在着较多的安全问题，对无线路由器可采取对接入点的安全策略外，还可设置网络防火墙、利用IP过滤，来进一步提高无线网络的安全性。</t>
+          <t>只是从被感染磁盘上复制文件到硬盘上，并不运行其中的可执行文件，就不会使系统感染病毒。</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>正确</t>
+          <t>错误</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -697,7 +697,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>在internet中，网关是一种连接内部网与internet上其他网络的中间设备，也称"路由器"。</t>
+          <t>因无线网络无法定向传输，导致无线网络存在着较多的安全问题，对无线路由器可采取对接入点的安全策略外，还可设置网络防火墙、利用IP过滤，来进一步提高无线网络的安全性。</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>基于网络的入侵监测能审查加密数据流的内容，对高速网络特别有效。</t>
+          <t>在internet中，网关是一种连接内部网与internet上其他网络的中间设备，也称"路由器"。</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>错误</t>
+          <t>正确</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -733,7 +733,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>复合型防火墙防火墙是内部网与外部网的隔离点，起着监视和隔绝应用层通信流的作用，同时也常结合过滤器的功能。</t>
+          <t>在传统的包过滤、代理和状态检测等三类防火墙中，只有状态检测防火墙可以再一定程度上检测并防止内部用户的恶意破坏。</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -751,12 +751,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>安全管理从范畴上讲，涉及物理安全策略、访问控制策略、信息加密策略和网络安全管理策略。</t>
+          <t>基于网络的入侵监测能审查加密数据流的内容，对高速网络特别有效。</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>正确</t>
+          <t>错误</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -769,12 +769,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>将文件的属性设置为只读，不可以保护其不被病毒感染。</t>
+          <t>复合型防火墙防火墙是内部网与外部网的隔离点，起着监视和隔绝应用层通信流的作用，同时也常结合过滤器的功能。</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>错误</t>
+          <t>正确</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -787,12 +787,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>当硬件配置相同时，代理防火墙对网络运行性能的影响要比包过滤的防火墙小。</t>
+          <t>安全管理从范畴上讲，涉及物理安全策略、访问控制策略、信息加密策略和网络安全管理策略。</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>错误</t>
+          <t>正确</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -805,12 +805,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>影响计算机实体安全的主要因素有：计算机及其网络系统自身的脆弱性因素；各种自然灾害导致的安全问题；人为的错误操作及各种计算机犯罪导致的安全问题。</t>
+          <t>将文件的属性设置为只读，不可以保护其不被病毒感染。</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>正确</t>
+          <t>错误</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -823,7 +823,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>电子邮件是一种"终端到终端"的服务，是被称为"存储转发式"服务。</t>
+          <t>当硬件配置相同时，代理防火墙对网络运行性能的影响要比包过滤的防火墙小。</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -841,12 +841,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>目前学术界研究的数字水印大多数是明文水印。</t>
+          <t>影响计算机实体安全的主要因素有：计算机及其网络系统自身的脆弱性因素；各种自然灾害导致的安全问题；人为的错误操作及各种计算机犯罪导致的安全问题。</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>错误</t>
+          <t>正确</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -859,7 +859,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>第四代防火墙即应用层防火墙是目前最先进的防火墙。</t>
+          <t>文本文件不会感染宏病毒。</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>网络的安全性取决于网络系统中最薄弱的环节。如何及时发现网络系统中最薄弱的环节、如何最大限度地保证网络系统的安全－最有效的方法是定期对网络系统进行安全性分析、及时发现并休整存在的弱点和漏洞。</t>
+          <t>木马不是病毒。</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -895,12 +895,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>虚网的终端系统可以分布在网络中不同的地理位置，但都属于统一逻辑广播域。</t>
+          <t>电子邮件是一种"终端到终端"的服务，是被称为"存储转发式"服务。</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>正确</t>
+          <t>错误</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
@@ -913,7 +913,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>蜜罐技术通常用于网络上监听别人口令。</t>
+          <t>电磁防护的措施主要有两类：一类是对传导发射的防护，主要采取对电源线和信号线加装性能良好的滤波器，减小传输阻抗和导线间的交叉耦合；另一类是对辐射的防护，为提高电子设备的抗干扰能。</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -931,12 +931,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>蠕虫病毒是指一个程序（或一组程序），会自我复制、传播到其他计算机系统中去。</t>
+          <t>目前学术界研究的数字水印大多数是明文水印。</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>正确</t>
+          <t>错误</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -949,7 +949,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>计算机安全分为两部分，一个是主机安全，一个是网络安全，二者合称为主机网络安全。</t>
+          <t>第四代防火墙即应用层防火墙是目前最先进的防火墙。</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -967,7 +967,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>计算机病毒的传播媒介来分类，可分为单机病毒和网络病毒。</t>
+          <t>网络的安全性取决于网络系统中最薄弱的环节。如何及时发现网络系统中最薄弱的环节、如何最大限度地保证网络系统的安全－最有效的方法是定期对网络系统进行安全性分析、及时发现并休整存在的弱点和漏洞。</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>计算机网络与分布式系统之间的区别主要是在传输介质。</t>
+          <t>芯片级防火墙基于专门的硬件平台，没有操作系统。</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1003,12 +1003,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>防火墙能够有效解决来自内部网络的攻击和安全问题。</t>
+          <t>虚网的终端系统可以分布在网络中不同的地理位置，但都属于统一逻辑广播域。</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>错误</t>
+          <t>正确</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>非法访问一旦突破数据包过滤型防火墙，即可对主机上的软件和配置漏洞进行攻击。</t>
+          <t>蜜罐技术通常用于网络上监听别人口令。</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>鲁棒性水印对信号的改动很敏感，主要用于完整性保护。</t>
+          <t>蠕虫病毒是指一个程序（或一组程序），会自我复制、传播到其他计算机系统中去。</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1052,17 +1052,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>填空题</t>
+          <t>判断题</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>DES采用的设计结构是（），明文分组长度为（）bit，密钥长度为（）bit。</t>
+          <t>计算机安全分为两部分，一个是主机安全，一个是网络安全，二者合称为主机网络安全。</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Feistel网络|64|56</t>
+          <t>正确</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
@@ -1070,17 +1070,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>填空题</t>
+          <t>判断题</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MD5把可变长度的消息哈希成（）位固定长度的值。</t>
+          <t>计算机病毒的传播媒介来分类，可分为单机病毒和网络病毒。</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>正确</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
@@ -1088,17 +1088,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>填空题</t>
+          <t>判断题</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Office中的Word、Excel、PowerPoint、Viso等很容易感染（）病毒。</t>
+          <t>计算机病毒的检测要从检查系统资源的异常情况入手。防治感染病毒的途径可以分为两类：用户加强和遵守安全操作控制措施；使用硬件和软件防病毒工具。</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>macro|宏</t>
+          <t>正确</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
@@ -1106,17 +1106,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>填空题</t>
+          <t>判断题</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>RSA算法的安全是基于（）分解的难度。</t>
+          <t>计算机网络与分布式系统之间的区别主要是在传输介质。</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>大整数</t>
+          <t>错误</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
@@ -1124,17 +1124,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>填空题</t>
+          <t>判断题</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>信息安全的五大要素分别是（）、（）、（）、可控性和不可抵赖性。</t>
+          <t>采用防火墙的网络一定是安全的。</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>机密性|完整性|可用性</t>
+          <t>错误</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
@@ -1142,17 +1142,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>填空题</t>
+          <t>判断题</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>在加密系统中，原有的信息称为，由变为的过程称为加密。</t>
+          <t>防火墙能够有效解决来自内部网络的攻击和安全问题。</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>plaintext|plaintext|ciphertext</t>
+          <t>错误</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -1160,17 +1160,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>填空题</t>
+          <t>判断题</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>在密码学中通常将源消息称为（）,将加密后的消息称为（）。这个变换处理过程称为（）过程，它的逆过程称为（）过程。</t>
+          <t>非法访问一旦突破数据包过滤型防火墙，即可对主机上的软件和配置漏洞进行攻击。</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>plaintext|ciphertext|encryption|decryption</t>
+          <t>正确</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
@@ -1178,17 +1178,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>填空题</t>
+          <t>判断题</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>在密码系统中，按照加密、解密使用的密钥特点分类，可分成（）密码系统和（）密码系统。</t>
+          <t>鲁棒性水印对信号的改动很敏感，主要用于完整性保护。</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>对称|非对称</t>
+          <t>正确</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
@@ -1201,12 +1201,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>在网络安全模型中，综合安全服务模型是有（）、（）和（）组成。</t>
+          <t>DES算法加密过程中输入的明文长度是（）位，整个加密过程需经过（）轮的子变换。</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>confidentiality|integrity|availability</t>
+          <t>64|16</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
@@ -1219,12 +1219,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>在网络安全系统中，AAA是、和的简称。</t>
+          <t>DES采用的设计结构是（），明文分组长度为（）bit，密钥长度为（）bit。</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Authentication|Authorization|Accounting</t>
+          <t>Feistel网络|64|56</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
@@ -1237,12 +1237,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>完整的木马程序一般由两个部分组成：一个是服务器程序，一个是控制器程序。中了木马就是指安装了木马的()程序。</t>
+          <t>MD5把可变长度的消息哈希成（）位固定长度的值。</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>服务器</t>
+          <t>128</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
@@ -1255,12 +1255,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>恶意代码的分析技术方法，分为分析方法和分析方法。</t>
+          <t>Office中的Word、Excel、PowerPoint、Viso等很容易感染（）病毒。</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>静态|动态</t>
+          <t>macro|宏</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
@@ -1273,12 +1273,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>我国《信息安全等级保护和管理办法》规定，信息系统安全保护等级共分成（）级，其中最高等级为（）。</t>
+          <t>RSA算法的安全是基于（）分解的难度。</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>5|第五级</t>
+          <t>大整数</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
@@ -1291,12 +1291,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>按防火墙对数据包处理方式的不同，防火墙可以分为防火墙和防火墙。</t>
+          <t>信息安全的五大要素分别是（）、（）、（）、可控性和不可抵赖性。</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>包过滤|应用代理</t>
+          <t>机密性|完整性|可用性</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
@@ -1309,12 +1309,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>计算机病毒按传播方式分为、、。</t>
+          <t>冲击波和震荡波都是属于（）病毒。</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>引导区型病毒|文件型病毒|网络型病毒</t>
+          <t>网络</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
@@ -1327,12 +1327,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>计算机网络安全是一门涉及（）、（）、（）、密码技术、信息安全技术、应用数学、数论等多学科的综合性学科。【请按顺序填写！】</t>
+          <t>在以太网中，所有的通信都是()的。</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>计算机科学|网络技术|通信技术</t>
+          <t>broadcast</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
@@ -1345,12 +1345,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>访问控制模式有三种模式，即访问控制、访问控制和访问控制。</t>
+          <t>在加密系统中，原有的信息称为，由变为的过程称为加密。</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>自主|强制|基于角色</t>
+          <t>plaintext|plaintext|ciphertext</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
@@ -1363,12 +1363,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>身份认证是计算机网络系统用户在进入系统或访问不同的系统资源时，系统确认该用户的身份是否、和的过程。</t>
+          <t>在密码学中通常将源消息称为（）,将加密后的消息称为（）。这个变换处理过程称为（）过程，它的逆过程称为（）过程。</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>protected|authentic|reliable|valid</t>
+          <t>plaintext|ciphertext|encryption|decryption</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
@@ -1381,12 +1381,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>防火墙隔离了内部、外部网络，是内、外部网络通信的途径，能够根据制定的访问规则对流经它的信息进行监控和审查，从而保护内部网络不受外界的非法访问和攻击。</t>
+          <t>在密码系统中，按照加密、解密使用的密钥特点分类，可分成（）密码系统和（）密码系统。</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>only</t>
+          <t>对称|非对称</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
@@ -1399,12 +1399,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>黑客的"攻击五部曲"是、踩点扫描、、种植后门、。</t>
+          <t>在网络安全模型中，综合安全服务模型是有（）、（）和（）组成。</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>信息收集|漏洞利用|清除痕迹</t>
+          <t>confidentiality|integrity|availability</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
@@ -1417,12 +1417,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>（）是指编制或者在计算机程序中插入的破坏计算机功能或者破坏数据，影响计算机使用并且能够自我复制的一组计算机指令或者程序代码。</t>
+          <t>在网络安全系统中，AAA是、和的简称。</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>计算机病毒</t>
+          <t>Authentication|Authorization|Accounting</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
@@ -1430,392 +1430,344 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>简答题</t>
+          <t>填空题</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>VPN有哪两大类型，分别适应哪些场合。</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
+          <t>完整的木马程序一般由两个部分组成：一个是服务器程序，一个是控制器程序。中了木马就是指安装了木马的()程序。</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>服务器</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>简答题</t>
+          <t>填空题</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>与蠕虫和脚本病毒相比，木马有哪些具体的特点？</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
+          <t>恶意代码的分析技术方法，分为分析方法和分析方法。</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>静态|动态</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>简答题</t>
+          <t>填空题</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>什么是身份认证？分析身份认证中3种不同方式的特点。</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr"/>
+          <t>我国《信息安全等级保护和管理办法》规定，信息系统安全保护等级共分成（）级，其中最高等级为（）。</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>5|第五级</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>简答题</t>
+          <t>填空题</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>散列算法有何特点？</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
+          <t>按防火墙对数据包处理方式的不同，防火墙可以分为防火墙和防火墙。</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>包过滤|应用代理</t>
+        </is>
+      </c>
       <c r="D59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>简答题</t>
+          <t>填空题</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>简述ARP欺骗攻击，以及常见的ARP欺骗的工作原理。</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
+          <t>计算机病毒按传播方式分为、、。</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>引导区型病毒|文件型病毒|网络型病毒</t>
+        </is>
+      </c>
       <c r="D60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>简答题</t>
+          <t>填空题</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>简述一下在一台初始化配置的防火墙上配置安全策略的步骤？</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr"/>
+          <t>计算机网络安全是一门涉及（）、（）、（）、密码技术、信息安全技术、应用数学、数论等多学科的综合性学科。【请按顺序填写！】</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>计算机科学|网络技术|通信技术</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>简答题</t>
+          <t>填空题</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>简述网络安全常用关键技术的内容？</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr"/>
+          <t>访问控制模式有三种模式，即访问控制、访问控制和访问控制。</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>自主|强制|基于角色</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>简答题</t>
+          <t>填空题</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>结合 ARP 协议的工作特点，描述 ARP 欺骗的工作原理。</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr"/>
+          <t>身份认证是计算机网络系统用户在进入系统或访问不同的系统资源时，系统确认该用户的身份是否、和的过程。</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>protected|authentic|reliable|valid</t>
+        </is>
+      </c>
       <c r="D63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>简答题</t>
+          <t>填空题</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>结合目前的网络的应用，简述为什么要研究网络安全。</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr"/>
+          <t>防火墙隔离了内部、外部网络，是内、外部网络通信的途径，能够根据制定的访问规则对流经它的信息进行监控和审查，从而保护内部网络不受外界的非法访问和攻击。</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>only</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>选择题</t>
+          <t>填空题</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>"公开密钥密码体制"的含义是（）。</t>
+          <t>非对称加密算法有两把密钥，一把称为私钥、另一把称为（）。public</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>['A将所有密钥公开','B两个密钥相同','C将公开密钥公开，私有密钥保密','D将私有密钥公开，公开密钥保密']</t>
-        </is>
-      </c>
+          <t>key</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>选择题</t>
+          <t>填空题</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>()不是Windows的共享访问权限。</t>
+          <t>黑客的"攻击五部曲"是、踩点扫描、、种植后门、。</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>['A完全控制','B读取及执行','C只读','D更改']</t>
-        </is>
-      </c>
+          <t>信息收集|漏洞利用|清除痕迹</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>选择题</t>
+          <t>填空题</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1）SSL指的是（）。</t>
+          <t>（）是指编制或者在计算机程序中插入的破坏计算机功能或者破坏数据，影响计算机使用并且能够自我复制的一组计算机指令或者程序代码。</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>['A安全通道协议','B加密认证协议','C安全套接层协议','D授权认证协议']</t>
-        </is>
-      </c>
+          <t>计算机病毒</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>选择题</t>
+          <t>简答题</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ARP属于()协议。</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>['A网络层','B数据链路层','C以上都不是','D传输层']</t>
-        </is>
-      </c>
+          <t>VPN有哪两大类型，分别适应哪些场合。</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>选择题</t>
+          <t>简答题</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>GPG可以实现数字签名，以下关于数字签名说法正确的是（）。</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>['A数字签名能够解决篡改、伪造等安全性问题','B数字签名能够解决数据的加密传输，即安全传输问题','C数字签名是在所传输的数据后附加上一段和传输数据毫无关系的数字信息。','D数字签名一般采用对称加密机制']</t>
-        </is>
-      </c>
+          <t>与蠕虫和脚本病毒相比，木马有哪些具体的特点？</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>选择题</t>
+          <t>简答题</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>PKI的主要组成不包括（）。</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>['A证书存储库CR','B注册授权RA','CSSL','D证书授权CA']</t>
-        </is>
-      </c>
+          <t>什么是身份认证？分析身份认证中3种不同方式的特点。</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>选择题</t>
+          <t>简答题</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>PKI管理对象不包括（）。</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>['A密钥','B证书','C证书撤消','DID和口令']</t>
-        </is>
-      </c>
+          <t>散列算法有何特点？</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>选择题</t>
+          <t>简答题</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>PPTP、L2TP和L2F隧道协议属于（）协议。</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>['A第四层隧道','B第一层隧道','C第二层隧道','D第三层隧道']</t>
-        </is>
-      </c>
+          <t>简述ARP欺骗攻击，以及常见的ARP欺骗的工作原理。</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>选择题</t>
+          <t>简答题</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>SSL协议是（）之间实现加密传输的协议。</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>['A物理层和数据层','B传输层和应用层','C物理层和网络层','D网络层和系统层']</t>
-        </is>
-      </c>
+          <t>简述一下在一台初始化配置的防火墙上配置安全策略的步骤？</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>选择题</t>
+          <t>简答题</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>下列关于PGP(PrettyGoodPrivacy)的说法中不正确的是（）。</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>['APGP可选用MD5和SHA两种Hash算法','BPGP不可使用IDEA加密算法','CPGP采用了ZIP数据压缩算法','DPGP可用于电子邮件，也可以用于文件存储']</t>
-        </is>
-      </c>
+          <t>简述网络安全常用关键技术的内容？</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>选择题</t>
+          <t>简答题</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>下列叙述中正确的是（）。</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>['A计算机病毒可以通过读写磁盘或网络等方式进行传播','B计算机病毒只能通过软件复制的方式进行传播','C计算机病毒只感染可执行文件','D计算机病毒只感染文本文件']</t>
-        </is>
-      </c>
+          <t>结合 ARP 协议的工作特点，描述 ARP 欺骗的工作原理。</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>选择题</t>
+          <t>简答题</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>下列属于造成软件系统漏洞常见原因是（）。</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>['A协议漏洞','B对外部输入不做检查','C缓冲区未做边界检查','D程序系统调试不当']</t>
-        </is>
-      </c>
+          <t>结合目前的网络的应用，简述为什么要研究网络安全。</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1825,17 +1777,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>下列措施中，（）不是减少病毒的传染和造成的损失的好办法。</t>
+          <t>"公开密钥密码体制"的含义是（）。</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>['A重要的文件要及时、定期备份，使备份能反映出系统的最新状态','B定期用抗病毒软件对系统进行查毒、杀毒','C外来的文件要经过病毒检测才能使用，不要使用盗版软件','D不与外界进行任何交流，所有软件都自行开发']</t>
+          <t>['A将所有密钥公开','B两个密钥相同','C将公开密钥公开，私有密钥保密','D将私有密钥公开，公开密钥保密']</t>
         </is>
       </c>
     </row>
@@ -1847,7 +1799,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>下面不属于TCSEC标准定义的系统安全等级的4个方面是（）。</t>
+          <t>()不是Windows的共享访问权限。</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -1857,7 +1809,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>['A可说明性','B安全政策','C安全特征','D安全保障']</t>
+          <t>['A完全控制','B读取及执行','C只读','D更改']</t>
         </is>
       </c>
     </row>
@@ -1869,17 +1821,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>为了简化管理，通常对访问者（），以避免访问控制表过于庞大。</t>
+          <t>()利用以太网的特点，将设备网卡设置为"混杂模式"，从而能够接受到整个以太网内的网络数据信息。</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>['A不作任何限制','B严格限制数量','C分类组织成组','D按访问时间排序，删除长期没有访问的用户']</t>
+          <t>['A嗅探程序','B拒绝服务攻击','C缓冲区溢出攻击','D木马程序']</t>
         </is>
       </c>
     </row>
@@ -1891,17 +1843,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>以下关于计算机病毒的特征说法正确的是（）。</t>
+          <t>1）SSL指的是（）。</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>['A计算机病毒只具有传染性，不具有破坏性','B计算机病毒具有破坏性，不具有传染性','C计算机病毒只具有破坏性，没有其他特征','D破坏性和传染性是计算机病毒的两大主要特征']</t>
+          <t>['A安全通道协议','B加密认证协议','C安全套接层协议','D授权认证协议']</t>
         </is>
       </c>
     </row>
@@ -1913,17 +1865,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>以下描述的现象中，不属于计算机病毒的是（）。</t>
+          <t>ARP属于()协议。</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>['A各种网上欺骗行为','B使网络阻塞','CWindows“控制面板”中，无“本地连接”图标','D破坏计算机的程序或数据']</t>
+          <t>['A网络层','B数据链路层','C以上都不是','D传输层']</t>
         </is>
       </c>
     </row>
@@ -1935,7 +1887,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>以下说法正确的是（）。</t>
+          <t>CA指的是（）。</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -1945,7 +1897,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>['A防火墙是一种主动安全策略执行设备','B防火墙能够抵御一切网络攻击','C防火墙如果配置不当，会导致更大的安全风险','D防火墙本身不需要提供防护']</t>
+          <t>['A安全套接层','B加密认证','C证书授权','D虚拟专用网']</t>
         </is>
       </c>
     </row>
@@ -1957,17 +1909,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>使用TELNET协议进行远程管理时，（）。</t>
+          <t>GPG可以实现数字签名，以下关于数字签名说法正确的是（）。</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>['A用户名和口令是不加密传输的，其它数据则以加密传输的','B用户名和口令是加密传输的，而其它数据则以文明方式传输','C包括用户名和口令在内，所有传输的数据都会被自动加密','D包括用户名和口令在内，所有传输的数据都不会被自动加密']</t>
+          <t>['A数字签名能够解决篡改、伪造等安全性问题','B数字签名能够解决数据的加密传输，即安全传输问题','C数字签名是在所传输的数据后附加上一段和传输数据毫无关系的数字信息。','D数字签名一般采用对称加密机制']</t>
         </is>
       </c>
     </row>
@@ -1979,17 +1931,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>假设使用一种加密算法，它的加密方法很简单：将每一个字母加5，即a加密成f。这种算法的密钥就是5，那么它属于（）。</t>
+          <t>NET是（）机构组织的域名。</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>['A单向函数密码技术','B公钥加密技术','C对称加密技术','D分组密码技术']</t>
+          <t>['A国际','B网络','C非盈利','D商业']</t>
         </is>
       </c>
     </row>
@@ -2001,17 +1953,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>关于防火墙和IDS，下列哪个说法是正确的？()</t>
+          <t>PKI的主要组成不包括（）。</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>['A防火墙无法检测内部人员的恶意操作或误操作','BIDS属于直路设备，无法做深度检测','CIDS不能与防火墙进行联动','D防火墙属于旁路设备，用于进行细粒度的检测']</t>
+          <t>['A证书存储库CR','B注册授权RA','CSSL','D证书授权CA']</t>
         </is>
       </c>
     </row>
@@ -2023,17 +1975,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>关于防火墙，以下（）说法是错误的。</t>
+          <t>PKI管理对象不包括（）。</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>['A防火墙能阻止来自内部的威胁','B防火墙能控制进出内网的信息流向和信息包','C防火墙能提供VPN功能','D防火墙能隐藏内部IP地址']</t>
+          <t>['A密钥','B证书','C证书撤消','DID和口令']</t>
         </is>
       </c>
     </row>
@@ -2045,7 +1997,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>包过滤是有选择地址让数包在内部与外部主机之间进行交换，根据安全规则有选择的路由某些数据包。下面不有进行包过滤的设备是()。</t>
+          <t>PPTP、L2TP和L2F隧道协议属于（）协议。</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2055,7 +2007,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>['A一台独立的主机','B网桥','C二层交换机','D路由器']</t>
+          <t>['A第四层隧道','B第一层隧道','C第二层隧道','D第三层隧道']</t>
         </is>
       </c>
     </row>
@@ -2067,17 +2019,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>可以被数据完整性机制防止的攻击方式是（）。</t>
+          <t>SSL协议是（）之间实现加密传输的协议。</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>['A数据中途被攻击者窃听获取','B抵赖做过信息的递交行为','C数据在途中被攻击者篡改或破坏','D假冒源地址或用户的地址欺骗攻击']</t>
+          <t>['A物理层和数据层','B传输层和应用层','C物理层和网络层','D网络层和系统层']</t>
         </is>
       </c>
     </row>
@@ -2089,17 +2041,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>在短时间内向网络中的某台服务器发送大量无效连接请求，导致合法用户暂时无法访问服务器的攻击行为是破坏了（）。</t>
+          <t>TCSEC共分为大类级。（）。</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>['A机密性','B可控性','C完整性','D可用性']</t>
+          <t>['A4,6','B3,7','C4,7','D4,5']</t>
         </is>
       </c>
     </row>
@@ -2111,17 +2063,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>在综合访问控制策略中，系统管理员权限、读/写权限、修改权限属于（）。</t>
+          <t>一般而言，Internet防火墙建立在一个网络的()</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>['A目录级安全控制','B网络的权限控制','C属性安全控制','D网络服务安全控制']</t>
+          <t>['A内部子网之间传送信息的中枢','B部分内部网络与外部网络的结合合','C内部网络与外部网络的交叉点','D每个子网的内部']</t>
         </is>
       </c>
     </row>
@@ -2133,7 +2085,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>在网络安全需求分析中，安全系统必须具有（），以适应网络规模的变化。</t>
+          <t>下列关于IPSec说法错误的是哪项？（）。</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2143,7 +2095,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>['A易于管理','B开放性','C可伸缩性','D安全体系']</t>
+          <t>['AAH只能验证数据报文不能对其进行加密','BESP可以支持NAT穿越','CAH协议使用3DES算法进行数据验证','D传输模式下，ESP不对IP数据包头进行验证']</t>
         </is>
       </c>
     </row>
@@ -2155,17 +2107,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>字典攻击被用于()。</t>
+          <t>下列关于PGP(PrettyGoodPrivacy)的说法中不正确的是（）。</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>['A远程登录','B网络嗅探','C破解密码','D用户欺骗']</t>
+          <t>['APGP可选用MD5和SHA两种Hash算法','BPGP不可使用IDEA加密算法','CPGP采用了ZIP数据压缩算法','DPGP可用于电子邮件，也可以用于文件存储']</t>
         </is>
       </c>
     </row>
@@ -2177,17 +2129,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>属于域名服务系统DNS中所维护的信息的是（）。</t>
+          <t>下列叙述中正确的是（）。</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>['AIP地址与MAc地址的对应关系','BCPU类型','C域名与MAC地址的对应关系','D域名与IP地址的对应关系']</t>
+          <t>['A计算机病毒可以通过读写磁盘或网络等方式进行传播','B计算机病毒只能通过软件复制的方式进行传播','C计算机病毒只感染可执行文件','D计算机病毒只感染文本文件']</t>
         </is>
       </c>
     </row>
@@ -2199,17 +2151,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>属于第二层的VPN隧道协议有（）。</t>
+          <t>下列哪个不属于NTFS权限（）。</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>['AIPSec','B所有选项皆不是','CGRE','DPPTP']</t>
+          <t>['A创建','B读取','C写入','D修改']</t>
         </is>
       </c>
     </row>
@@ -2221,7 +2173,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>强制安装和难以卸载的软件属于（）。</t>
+          <t>下列属于造成软件系统漏洞常见原因是（）。</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2231,7 +2183,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>['A蠕虫','B恶意软件','C病毒','D木马']</t>
+          <t>['A协议漏洞','B对外部输入不做检查','C缓冲区未做边界检查','D程序系统调试不当']</t>
         </is>
       </c>
     </row>
@@ -2243,17 +2195,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>把SELinux设置为容许状态的命令为（）。</t>
+          <t>下列措施中，（）不是减少病毒的传染和造成的损失的好办法。</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>['Asetenforce1','BC.gentenforce1','Csetenforce0','Dgentenforce0']</t>
+          <t>['A重要的文件要及时、定期备份，使备份能反映出系统的最新状态','B定期用抗病毒软件对系统进行查毒、杀毒','C外来的文件要经过病毒检测才能使用，不要使用盗版软件','D不与外界进行任何交流，所有软件都自行开发']</t>
         </is>
       </c>
     </row>
@@ -2265,17 +2217,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>数据保密性安全服务的基础是（）。</t>
+          <t>下面不属于TCSEC标准定义的系统安全等级的4个方面是（）。</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>['A加密机制','B访问控制机制','C数据完整性机制','D数字签名机制']</t>
+          <t>['A可说明性','B安全政策','C安全特征','D安全保障']</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2239,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>有意避开系统访问控制机制，对网络设备及资源进行非正常使用属于（）。</t>
+          <t>不属于隧道协议的是（）。</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2297,7 +2249,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>['A破坏数据完整性','B拒绝服务攻击','C信息泄露','D非授权访问']</t>
+          <t>['AIPSec','BL2TP','CPPTP','DTCP/IP']</t>
         </is>
       </c>
     </row>
@@ -2309,17 +2261,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>用户匿名登录主机时，用户名为（）。</t>
+          <t>为了简化管理，通常对访问者（），以避免访问控制表过于庞大。</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>['AOK','BAnonymous','Cguest','DAdmin']</t>
+          <t>['A不作任何限制','B严格限制数量','C分类组织成组','D按访问时间排序，删除长期没有访问的用户']</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2283,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>目前，VPN使用了（）技术保证了通信的安全性。</t>
+          <t>以下关于计算机病毒的特征说法正确的是（）。</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2341,7 +2293,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>['A身份认证、数据加密','B隧道协议、身份认证','C隧道协议、数据加密','D隧道协议、身份认证和数据加密']</t>
+          <t>['A计算机病毒只具有传染性，不具有破坏性','B计算机病毒具有破坏性，不具有传染性','C计算机病毒只具有破坏性，没有其他特征','D破坏性和传染性是计算机病毒的两大主要特征']</t>
         </is>
       </c>
     </row>
@@ -2353,17 +2305,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>网络安全最终是一个折衷的方案，即安全强度和安全操作代价的折衷，除增加安全设施投资外，还应考虑（）。</t>
+          <t>以下描述的现象中，不属于计算机病毒的是（）。</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>['A用户的方便性','B其它3选项都是','C管理的复杂性','D对现有系统的影响及对不同平台的支持']</t>
+          <t>['A各种网上欺骗行为','B使网络阻塞','CWindows“控制面板”中，无“本地连接”图标','D破坏计算机的程序或数据']</t>
         </is>
       </c>
     </row>
@@ -2375,17 +2327,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>网络攻击主要分为单包攻击和流量型攻击两大类，单包攻击包括扫描窥探攻击、畸形报文攻击和特殊报文攻击。（）</t>
+          <t>以下说法正确的是（）。</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>['A错','B对']</t>
+          <t>['A防火墙是一种主动安全策略执行设备','B防火墙能够抵御一切网络攻击','C防火墙如果配置不当，会导致更大的安全风险','D防火墙本身不需要提供防护']</t>
         </is>
       </c>
     </row>
@@ -2397,17 +2349,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>能在物理层、链路层、网络层、传输层和应用层提供的网络安全服务的是（）。</t>
+          <t>以下（）不是保证网络安全的要素。</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>['A认证服务','B访问控制服务','C数据完整性服务','D数据保密性服务']</t>
+          <t>['A发送信息的不可否认性','B数据存储的唯一性','C信息的保密性','D数据交换的完整性']</t>
         </is>
       </c>
     </row>
@@ -2419,17 +2371,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>计算机病毒的主要危害有（）。</t>
+          <t>使用TELNET协议进行远程管理时，（）。</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>['A干扰计算机的正常运行','B使计算机腐烂','C损坏计算机的外观','D影响操作者的健康']</t>
+          <t>['A用户名和口令是不加密传输的，其它数据则以加密传输的','B用户名和口令是加密传输的，而其它数据则以文明方式传输','C包括用户名和口令在内，所有传输的数据都会被自动加密','D包括用户名和口令在内，所有传输的数据都不会被自动加密']</t>
         </is>
       </c>
     </row>
@@ -2441,17 +2393,17 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>计算机网络通信时，利用那个协议获得对方的MAC地址？（）</t>
+          <t>假设使用一种加密算法，它的加密方法很简单：将每一个字母加5，即a加密成f。这种算法的密钥就是5，那么它属于（）。</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>['AARP','BRARP','CUDP','DTCP']</t>
+          <t>['A单向函数密码技术','B公钥加密技术','C对称加密技术','D分组密码技术']</t>
         </is>
       </c>
     </row>
@@ -2463,7 +2415,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>访问控制是指确定（）以及实施访问权限的过程。</t>
+          <t>关于防火墙和IDS，下列哪个说法是正确的？()</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2473,7 +2425,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>['A可给予哪些主体访问权利','B用户权限','C系统是否遭受入侵','D可被用户访问的资源']</t>
+          <t>['A防火墙无法检测内部人员的恶意操作或误操作','BIDS属于直路设备，无法做深度检测','CIDS不能与防火墙进行联动','D防火墙属于旁路设备，用于进行细粒度的检测']</t>
         </is>
       </c>
     </row>
@@ -2485,17 +2437,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>防火墙的作用包括（）。I.提高计算机系统总体的安全性II.提高网络速度III.控制对网点系统的访问IV.数据加密</t>
+          <t>关于防火墙的描述不正确的是（）。</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>['AII、IV','BII、III','CI、II','DI、III']</t>
+          <t>['A防火墙不能防止内部攻击','B防火墙是IDS的有利补充','C防火墙既可以防止外部用户攻击，也可以防止内部用户攻击','D如果一个公司信息安全制度不明确，拥有再好的防火墙也没有用']</t>
         </is>
       </c>
     </row>
@@ -2507,17 +2459,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>驻留在多个网络设备上的程序在短时间内产生大量的请求信息冲击某web服务器，导致该服务器不堪重负，无法正常相应其他合法用户的请求，这属于（）。</t>
+          <t>关于防火墙，以下（）说法是错误的。</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>['AMAC攻击','BDDoS攻击','C上网冲浪','D中间人攻击']</t>
+          <t>['A防火墙能阻止来自内部的威胁','B防火墙能控制进出内网的信息流向和信息包','C防火墙能提供VPN功能','D防火墙能隐藏内部IP地址']</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2481,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>（）不属于ISO/OSI安全体系结构的安全机制。</t>
+          <t>包过滤是有选择地址让数包在内部与外部主机之间进行交换，根据安全规则有选择的路由某些数据包。下面不有进行包过滤的设备是()。</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2539,7 +2491,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>['A数字签名机制','B访问控制机制','C审计机制','D通信业务填充机制']</t>
+          <t>['A一台独立的主机','B网桥','C二层交换机','D路由器']</t>
         </is>
       </c>
     </row>
@@ -2551,17 +2503,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>（）不是信息失真的原因。</t>
+          <t>可以被数据完整性机制防止的攻击方式是（）。</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>['A信息在理解上的偏差','B信息（信箱）接收信息出现偏差','C信息提供的信息不完全、不准确','D信息在编码、译码和传递过程中受到干扰']</t>
+          <t>['A数据中途被攻击者窃听获取','B抵赖做过信息的递交行为','C数据在途中被攻击者篡改或破坏','D假冒源地址或用户的地址欺骗攻击']</t>
         </is>
       </c>
     </row>
@@ -2573,17 +2525,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>（）可以启动WindowsServer2003的注册表编辑器。I.REGEDIT.EXEII.DFVIEW.EXEIII.FDISK.EXEIV.REGISTRY.EXEV.REGEDT32.EXE</t>
+          <t>在下面4种病毒中，()可以远程控制网络中的计算机。</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>['AII、III','BI、V','CIV、V','DI、II']</t>
+          <t>['AMacro.Melissa','BWin32.CIH','Cworm.Sasser.f','DTrojan.qq3344']</t>
         </is>
       </c>
     </row>
@@ -2595,15 +2547,763 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
+          <t>在短时间内向网络中的某台服务器发送大量无效连接请求，导致合法用户暂时无法访问服务器的攻击行为是破坏了（）。</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>['A机密性','B可控性','C完整性','D可用性']</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>选择题</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>在综合访问控制策略中，系统管理员权限、读/写权限、修改权限属于（）。</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>['A目录级安全控制','B网络的权限控制','C属性安全控制','D网络服务安全控制']</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>选择题</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>在网络安全需求分析中，安全系统必须具有（），以适应网络规模的变化。</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>['A易于管理','B开放性','C可伸缩性','D安全体系']</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>选择题</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>字典攻击被用于()。</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>['A远程登录','B网络嗅探','C破解密码','D用户欺骗']</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>选择题</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>对企业网络最大的威胁是（）。</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>['A黑客攻击','B外国政府','C内部员工的恶意攻击','D竞争对手']</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>选择题</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>对称密码算法（），所以特别适合对大量的数据进行加密。</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>['A比非对称密码算法更安全','B还能同时用于身份认证','C比非对称密码算法效率更高','D比非对称密码算法密钥长度更长']</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>选择题</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>将公司与外部供应商、客户及其他利益相关群体相连接的是（）。</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>['A外联网VPN','B无线VPN','C内联网VPN','D远程接入VPN']</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>选择题</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>属于域名服务系统DNS中所维护的信息的是（）。</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>['AIP地址与MAc地址的对应关系','BCPU类型','C域名与MAC地址的对应关系','D域名与IP地址的对应关系']</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>选择题</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>属于第二层的VPN隧道协议有（）。</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>['AIPSec','B所有选项皆不是','CGRE','DPPTP']</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>选择题</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>强制安装和难以卸载的软件属于（）。</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>['A蠕虫','B恶意软件','C病毒','D木马']</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>选择题</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>把SELinux设置为容许状态的命令为（）。</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>['Asetenforce1','BC.gentenforce1','Csetenforce0','Dgentenforce0']</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>选择题</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>数字签名可以做到（）。</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>['A防止窃听者攻击','B防止发送方的抵赖和接收方伪造','C防止窃听','D防止接收方的抵赖和发送方伪造']</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>选择题</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>数据保密性安全服务的基础是（）。</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>['A加密机制','B访问控制机制','C数据完整性机制','D数字签名机制']</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>选择题</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>有意避开系统访问控制机制，对网络设备及资源进行非正常使用属于（）。</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>['A破坏数据完整性','B拒绝服务攻击','C信息泄露','D非授权访问']</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>选择题</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>权限管理属于下面哪种安全性策略（）。</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>['A用户安全性策略','B应用程序开发者的安全性策略','C数据库管理者安全性策略','D系统安全性策略']</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>选择题</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>用户匿名登录主机时，用户名为（）。</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>['AOK','BAnonymous','Cguest','DAdmin']</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>选择题</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>目前，VPN使用了（）技术保证了通信的安全性。</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>['A身份认证、数据加密','B隧道协议、身份认证','C隧道协议、数据加密','D隧道协议、身份认证和数据加密']</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>选择题</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>第一个实用的、迄今为止应用最广的公钥密码体制是()。</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>['ANTRU','BElgamal','CRSA','DECC']</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>选择题</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>网络安全是在分布网络环境中对（）提供安全保护。</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>['A信息的处理、传输','B其它3选项都是','C信息载体','D信息的存储、访问']</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>选择题</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>网络安全最终是一个折衷的方案，即安全强度和安全操作代价的折衷，除增加安全设施投资外，还应考虑（）。</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>['A用户的方便性','B其它3选项都是','C管理的复杂性','D对现有系统的影响及对不同平台的支持']</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>选择题</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>网络攻击主要分为单包攻击和流量型攻击两大类，单包攻击包括扫描窥探攻击、畸形报文攻击和特殊报文攻击。（）</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>['A错','B对']</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>选择题</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>能在物理层、链路层、网络层、传输层和应用层提供的网络安全服务的是（）。</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>['A认证服务','B访问控制服务','C数据完整性服务','D数据保密性服务']</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>选择题</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>计算机病毒会通过各种渠道从已被感染的计算机扩散到未被感染的计算机。此特征为计算机病毒的()。</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>['A欺骗性','B持久性','C传染性','D潜伏性']</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>选择题</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>计算机病毒是（）。</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>['A设计不完善的计算机程序','B已被破坏的计算机程序','C以危害系统为目的的特殊的计算机程序','D编制有错误的计算机程序']</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>选择题</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>计算机病毒的主要危害有（）。</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>['A干扰计算机的正常运行','B使计算机腐烂','C损坏计算机的外观','D影响操作者的健康']</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>选择题</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>计算机网络通信时，利用那个协议获得对方的MAC地址？（）</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>['AARP','BRARP','CUDP','DTCP']</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>选择题</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>访问控制是指确定（）以及实施访问权限的过程。</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>['A可给予哪些主体访问权利','B用户权限','C系统是否遭受入侵','D可被用户访问的资源']</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>选择题</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>身份鉴别是安全服务中的重要一环，以下关于身份鉴别叙述不正确的是（）。</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>['A身份鉴别一般不用提供双向的认证','B数字签名机制是实现身份鉴别的重要机制','C身份鉴别是授权控制的基础','D目前一般采用基于对称密钥加密或公开密钥加密的方法']</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>选择题</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>防火墙的作用包括（）。I.提高计算机系统总体的安全性II.提高网络速度III.控制对网点系统的访问IV.数据加密</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>['AII、IV','BII、III','CI、II','DI、III']</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>选择题</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>驻留在多个网络设备上的程序在短时间内产生大量的请求信息冲击某web服务器，导致该服务器不堪重负，无法正常相应其他合法用户的请求，这属于（）。</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>['AMAC攻击','BDDoS攻击','C上网冲浪','D中间人攻击']</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>选择题</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>（）不属于ISO/OSI安全体系结构的安全机制。</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>['A数字签名机制','B访问控制机制','C审计机制','D通信业务填充机制']</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>选择题</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>（）不是信息失真的原因。</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>['A信息在理解上的偏差','B信息（信箱）接收信息出现偏差','C信息提供的信息不完全、不准确','D信息在编码、译码和传递过程中受到干扰']</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>选择题</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>（）可以启动WindowsServer2003的注册表编辑器。I.REGEDIT.EXEII.DFVIEW.EXEIII.FDISK.EXEIV.REGISTRY.EXEV.REGEDT32.EXE</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>['AII、III','BI、V','CIV、V','DI、II']</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>选择题</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>（）是建立完善的访问控制策略，及时发现网络遭受攻击情况并加以追踪和防范，避免对网络造成更大损失。</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>['A完善服务器系统安全性能','B实施存取控制','C安全管理检测','D动态站点监控']</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>选择题</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
           <t>（）策略是防止非法访问的第一道屏障。</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="C146" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="D146" t="inlineStr">
         <is>
           <t>['A网络权限控制','B属性安全控制','C目录级安全控制','D入网访问控制']</t>
         </is>
